--- a/model/Auswertung/Fließtext/Ergebnis_Molmo/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Molmo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>1569</v>
       </c>
       <c r="C2" t="n">
-        <v>34.35309114085405</v>
+        <v>1332</v>
       </c>
       <c r="D2" t="n">
-        <v>539</v>
+        <v>237</v>
       </c>
       <c r="E2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16.50732950924155</v>
+      </c>
+      <c r="G2" t="n">
         <v>216</v>
       </c>
-      <c r="F2" t="n">
-        <v>37.96296296296296</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>156</v>
       </c>
-      <c r="H2" t="n">
-        <v>179</v>
-      </c>
       <c r="I2" t="n">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" t="n">
+        <v>23</v>
+      </c>
+      <c r="L2" t="n">
+        <v>30.09259259259259</v>
+      </c>
+      <c r="M2" t="n">
+        <v>25.46296296296297</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>72.22222222222221</v>
+      </c>
+      <c r="P2" t="n">
+        <v>76.85185185185185</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.875</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>87.18589368860734</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>62.82843983219707</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>3496</v>
       </c>
       <c r="C3" t="n">
-        <v>11.29862700228833</v>
+        <v>3471</v>
       </c>
       <c r="D3" t="n">
-        <v>395</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
+        <v>106</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.747139588100686</v>
+      </c>
+      <c r="G3" t="n">
         <v>590</v>
       </c>
-      <c r="F3" t="n">
-        <v>15.08474576271187</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>549</v>
       </c>
-      <c r="H3" t="n">
-        <v>577</v>
-      </c>
       <c r="I3" t="n">
-        <v>23</v>
+        <v>553</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.593220338983051</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.915254237288136</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>93.05084745762711</v>
+      </c>
+      <c r="P3" t="n">
+        <v>93.72881355932203</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.9745762711864406</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.9745762711864406</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.9745762711864406</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>98.78132177785781</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>82.63524323374853</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>1331</v>
       </c>
       <c r="C4" t="n">
-        <v>114.6506386175808</v>
+        <v>810</v>
       </c>
       <c r="D4" t="n">
-        <v>1526</v>
+        <v>521</v>
       </c>
       <c r="E4" t="n">
+        <v>1333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>139.2937640871525</v>
+      </c>
+      <c r="G4" t="n">
         <v>184</v>
       </c>
-      <c r="F4" t="n">
-        <v>133.1521739130435</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>32</v>
       </c>
-      <c r="H4" t="n">
-        <v>41</v>
-      </c>
       <c r="I4" t="n">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="J4" t="n">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="K4" t="n">
+        <v>227</v>
+      </c>
+      <c r="L4" t="n">
+        <v>202.7173913043478</v>
+      </c>
+      <c r="M4" t="n">
+        <v>200.5434782608696</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>17.39130434782609</v>
+      </c>
+      <c r="P4" t="n">
+        <v>19.56521739130435</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.2065217391304348</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.3423423423423423</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>0.7951960188189727</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>8.040657581221449</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>3065</v>
       </c>
       <c r="C5" t="n">
-        <v>66.49265905383361</v>
+        <v>2547</v>
       </c>
       <c r="D5" t="n">
-        <v>2038</v>
+        <v>518</v>
       </c>
       <c r="E5" t="n">
+        <v>412</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30.34257748776509</v>
+      </c>
+      <c r="G5" t="n">
         <v>436</v>
       </c>
-      <c r="F5" t="n">
-        <v>85.3211009174312</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>116</v>
       </c>
-      <c r="H5" t="n">
-        <v>214</v>
-      </c>
       <c r="I5" t="n">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="J5" t="n">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="K5" t="n">
+        <v>87</v>
+      </c>
+      <c r="L5" t="n">
+        <v>77.06422018348624</v>
+      </c>
+      <c r="M5" t="n">
+        <v>68.80733944954129</v>
+      </c>
+      <c r="N5" t="n">
+        <v>36</v>
+      </c>
+      <c r="O5" t="n">
+        <v>26.60550458715597</v>
+      </c>
+      <c r="P5" t="n">
+        <v>34.86238532110092</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.5435779816513762</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.7043090638930164</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>30.63433837015504</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>11.9647037239892</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>1496</v>
       </c>
       <c r="C6" t="n">
-        <v>32.82085561497326</v>
+        <v>1460</v>
       </c>
       <c r="D6" t="n">
-        <v>491</v>
+        <v>36</v>
       </c>
       <c r="E6" t="n">
+        <v>107</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.558823529411764</v>
+      </c>
+      <c r="G6" t="n">
         <v>198</v>
       </c>
-      <c r="F6" t="n">
-        <v>45.95959595959596</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>154</v>
       </c>
-      <c r="H6" t="n">
-        <v>179</v>
-      </c>
       <c r="I6" t="n">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="J6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>23.23232323232323</v>
+      </c>
+      <c r="M6" t="n">
+        <v>17.67676767676768</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>77.77777777777779</v>
+      </c>
+      <c r="P6" t="n">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.9312169312169312</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.8888888888888888</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.9095607235142119</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>87.78732814380373</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>54.77187623758027</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>2025</v>
       </c>
       <c r="C7" t="n">
-        <v>11.85185185185185</v>
+        <v>1820</v>
       </c>
       <c r="D7" t="n">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="G7" t="n">
         <v>268</v>
       </c>
-      <c r="F7" t="n">
-        <v>18.65671641791045</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>219</v>
       </c>
-      <c r="H7" t="n">
-        <v>240</v>
-      </c>
       <c r="I7" t="n">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="J7" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11.56716417910448</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.970149253731343</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>81.71641791044776</v>
+      </c>
+      <c r="P7" t="n">
+        <v>87.31343283582089</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.832089552238806</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.9083503054989817</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>81.37120509557586</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>70.91688217841495</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>2754</v>
       </c>
       <c r="C8" t="n">
-        <v>3.848946986201888</v>
+        <v>2747</v>
       </c>
       <c r="D8" t="n">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
+        <v>69</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.759622367465504</v>
+      </c>
+      <c r="G8" t="n">
         <v>463</v>
       </c>
-      <c r="F8" t="n">
-        <v>4.967602591792657</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>455</v>
       </c>
-      <c r="H8" t="n">
-        <v>462</v>
-      </c>
       <c r="I8" t="n">
+        <v>456</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
         <v>5</v>
       </c>
-      <c r="J8" t="n">
-        <v>6</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
+        <v>2.159827213822894</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.943844492440605</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>98.27213822894169</v>
+      </c>
+      <c r="P8" t="n">
+        <v>98.48812095032397</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.9744136460554371</v>
       </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>0.9870410367170627</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.98068669527897</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>99.66452190056445</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>93.64531754604836</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>2111</v>
       </c>
       <c r="C9" t="n">
-        <v>4.073898626243486</v>
+        <v>2102</v>
       </c>
       <c r="D9" t="n">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.136901942207485</v>
+      </c>
+      <c r="G9" t="n">
         <v>330</v>
       </c>
-      <c r="F9" t="n">
-        <v>7.878787878787878</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>317</v>
       </c>
-      <c r="H9" t="n">
-        <v>324</v>
-      </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>321</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.242424242424243</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.03030303030303</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>96.06060606060606</v>
+      </c>
+      <c r="P9" t="n">
+        <v>97.27272727272728</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.9938271604938271</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.9757575757575757</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.9847094801223242</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>99.19193265060817</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>88.33261020591537</v>
       </c>
     </row>

--- a/model/Auswertung/Fließtext/Ergebnis_Molmo/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Molmo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,644 +436,673 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Gesamtzeichen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CER</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gesamtwörter</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt fehlend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt zusätzlich</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>WER</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Erweiterter WER</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Precision erweitert</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Recall erweitert</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score erweitert</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Cosine Similarity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>BLEU Score</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Durchlauf</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Gesamtzeichen</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Korrekte Zeichen</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Fehlende Zeichen</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::CER</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Gesamtwörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::WER</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Precision</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Recall</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::F1 Score</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::Cosine Similarity</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::BLEU Score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1569</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1332</v>
+      </c>
+      <c r="C2" t="n">
+        <v>237</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1651</v>
+      </c>
+      <c r="F2" t="n">
+        <v>216</v>
+      </c>
+      <c r="G2" t="n">
+        <v>174</v>
+      </c>
+      <c r="H2" t="n">
+        <v>42</v>
+      </c>
+      <c r="I2" t="n">
+        <v>33</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.3472</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.2546</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.8406</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.8832</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8056</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.8447</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.8227</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.8635</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.8719</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.6283</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1569</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1332</v>
-      </c>
-      <c r="D2" t="n">
-        <v>237</v>
-      </c>
-      <c r="E2" t="n">
-        <v>22</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16.50732950924155</v>
-      </c>
-      <c r="G2" t="n">
-        <v>216</v>
-      </c>
-      <c r="H2" t="n">
-        <v>156</v>
-      </c>
-      <c r="I2" t="n">
-        <v>166</v>
-      </c>
-      <c r="J2" t="n">
-        <v>32</v>
-      </c>
-      <c r="K2" t="n">
-        <v>23</v>
-      </c>
-      <c r="L2" t="n">
-        <v>30.09259259259259</v>
-      </c>
-      <c r="M2" t="n">
-        <v>25.46296296296297</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" t="n">
-        <v>72.22222222222221</v>
-      </c>
-      <c r="P2" t="n">
-        <v>76.85185185185185</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="T2" t="n">
-        <v>87.18589368860734</v>
-      </c>
-      <c r="U2" t="n">
-        <v>62.82843983219707</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>3496</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3471</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>106</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="F3" t="n">
+        <v>590</v>
+      </c>
+      <c r="G3" t="n">
+        <v>567</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0644</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0508</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9742</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.9676</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.9676</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.9742</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.9878</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.8264</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3496</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3471</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>106</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.747139588100686</v>
-      </c>
-      <c r="G3" t="n">
-        <v>590</v>
-      </c>
-      <c r="H3" t="n">
-        <v>549</v>
-      </c>
-      <c r="I3" t="n">
-        <v>553</v>
-      </c>
-      <c r="J3" t="n">
-        <v>19</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.593220338983051</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.915254237288136</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>93.05084745762711</v>
-      </c>
-      <c r="P3" t="n">
-        <v>93.72881355932203</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.9745762711864406</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.9745762711864406</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.9745762711864406</v>
-      </c>
-      <c r="T3" t="n">
-        <v>98.78132177785781</v>
-      </c>
-      <c r="U3" t="n">
-        <v>82.63524323374853</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>1331</v>
+      </c>
+      <c r="B4" t="n">
+        <v>810</v>
+      </c>
+      <c r="C4" t="n">
+        <v>521</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.3929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>184</v>
+      </c>
+      <c r="G4" t="n">
+        <v>35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>149</v>
+      </c>
+      <c r="I4" t="n">
+        <v>231</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.0652</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.0217</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1316</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.1336</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.1902</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.1944</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1556</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.1584</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0804</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1331</v>
-      </c>
-      <c r="C4" t="n">
-        <v>810</v>
-      </c>
-      <c r="D4" t="n">
-        <v>521</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1333</v>
-      </c>
-      <c r="F4" t="n">
-        <v>139.2937640871525</v>
-      </c>
-      <c r="G4" t="n">
-        <v>184</v>
-      </c>
-      <c r="H4" t="n">
-        <v>32</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36</v>
-      </c>
-      <c r="J4" t="n">
-        <v>142</v>
-      </c>
-      <c r="K4" t="n">
-        <v>227</v>
-      </c>
-      <c r="L4" t="n">
-        <v>202.7173913043478</v>
-      </c>
-      <c r="M4" t="n">
-        <v>200.5434782608696</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19.56521739130435</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.2065217391304348</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.3423423423423423</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.7951960188189727</v>
-      </c>
-      <c r="U4" t="n">
-        <v>8.040657581221449</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2547</v>
+      </c>
+      <c r="C5" t="n">
+        <v>518</v>
+      </c>
+      <c r="D5" t="n">
+        <v>412</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3034</v>
+      </c>
+      <c r="F5" t="n">
+        <v>436</v>
+      </c>
+      <c r="G5" t="n">
+        <v>170</v>
+      </c>
+      <c r="H5" t="n">
+        <v>266</v>
+      </c>
+      <c r="I5" t="n">
+        <v>180</v>
+      </c>
+      <c r="J5" t="n">
+        <v>36</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.0229</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8578</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.5414</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3899</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.4326</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.4762</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.3063</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1196</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3065</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2547</v>
-      </c>
-      <c r="D5" t="n">
-        <v>518</v>
-      </c>
-      <c r="E5" t="n">
-        <v>412</v>
-      </c>
-      <c r="F5" t="n">
-        <v>30.34257748776509</v>
-      </c>
-      <c r="G5" t="n">
-        <v>436</v>
-      </c>
-      <c r="H5" t="n">
-        <v>116</v>
-      </c>
-      <c r="I5" t="n">
-        <v>152</v>
-      </c>
-      <c r="J5" t="n">
-        <v>213</v>
-      </c>
-      <c r="K5" t="n">
-        <v>87</v>
-      </c>
-      <c r="L5" t="n">
-        <v>77.06422018348624</v>
-      </c>
-      <c r="M5" t="n">
-        <v>68.80733944954129</v>
-      </c>
-      <c r="N5" t="n">
-        <v>36</v>
-      </c>
-      <c r="O5" t="n">
-        <v>26.60550458715597</v>
-      </c>
-      <c r="P5" t="n">
-        <v>34.86238532110092</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.5435779816513762</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.7043090638930164</v>
-      </c>
-      <c r="T5" t="n">
-        <v>30.63433837015504</v>
-      </c>
-      <c r="U5" t="n">
-        <v>11.9647037239892</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A6" t="n">
+        <v>1496</v>
       </c>
       <c r="B6" t="n">
-        <v>1496</v>
+        <v>1460</v>
       </c>
       <c r="C6" t="n">
-        <v>1460</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="E6" t="n">
-        <v>107</v>
+        <v>0.0956</v>
       </c>
       <c r="F6" t="n">
-        <v>9.558823529411764</v>
+        <v>198</v>
       </c>
       <c r="G6" t="n">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="H6" t="n">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="I6" t="n">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="J6" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K6" t="n">
         <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>23.23232323232323</v>
+        <v>0.2879</v>
       </c>
       <c r="M6" t="n">
-        <v>17.67676767676768</v>
+        <v>0.1768</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>0.8811</v>
       </c>
       <c r="O6" t="n">
-        <v>77.77777777777779</v>
+        <v>0.9368</v>
       </c>
       <c r="P6" t="n">
-        <v>83.33333333333334</v>
+        <v>0.8232</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9312169312169312</v>
+        <v>0.8717</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8512</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9095607235142119</v>
+        <v>0.903</v>
       </c>
       <c r="T6" t="n">
-        <v>87.78732814380373</v>
+        <v>0.8779</v>
       </c>
       <c r="U6" t="n">
-        <v>54.77187623758027</v>
+        <v>0.5477</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1820</v>
+      </c>
+      <c r="C7" t="n">
+        <v>205</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1111</v>
+      </c>
+      <c r="F7" t="n">
+        <v>268</v>
+      </c>
+      <c r="G7" t="n">
+        <v>240</v>
+      </c>
+      <c r="H7" t="n">
+        <v>28</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1828</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0709</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.9195</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.9756</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.8955</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.9486</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.9074</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.9619</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.8137</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.7092000000000001</v>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1820</v>
-      </c>
-      <c r="D7" t="n">
-        <v>205</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="G7" t="n">
-        <v>268</v>
-      </c>
-      <c r="H7" t="n">
-        <v>219</v>
-      </c>
-      <c r="I7" t="n">
-        <v>234</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>11.56716417910448</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5.970149253731343</v>
-      </c>
-      <c r="N7" t="n">
-        <v>15</v>
-      </c>
-      <c r="O7" t="n">
-        <v>81.71641791044776</v>
-      </c>
-      <c r="P7" t="n">
-        <v>87.31343283582089</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.832089552238806</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.9083503054989817</v>
-      </c>
-      <c r="T7" t="n">
-        <v>81.37120509557586</v>
-      </c>
-      <c r="U7" t="n">
-        <v>70.91688217841495</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>2754</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2747</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>69</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="F8" t="n">
+        <v>463</v>
+      </c>
+      <c r="G8" t="n">
+        <v>458</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.9871</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9892</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.9892</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.9913</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.9881</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.9903</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.9966</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.9365</v>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>4</t>
         </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2754</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2747</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>69</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.759622367465504</v>
-      </c>
-      <c r="G8" t="n">
-        <v>463</v>
-      </c>
-      <c r="H8" t="n">
-        <v>455</v>
-      </c>
-      <c r="I8" t="n">
-        <v>456</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.159827213822894</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.943844492440605</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>98.27213822894169</v>
-      </c>
-      <c r="P8" t="n">
-        <v>98.48812095032397</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.9744136460554371</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.9870410367170627</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.98068669527897</v>
-      </c>
-      <c r="T8" t="n">
-        <v>99.66452190056445</v>
-      </c>
-      <c r="U8" t="n">
-        <v>93.64531754604836</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A9" t="n">
+        <v>2111</v>
       </c>
       <c r="B9" t="n">
-        <v>2111</v>
+        <v>2102</v>
       </c>
       <c r="C9" t="n">
-        <v>2102</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>0.0114</v>
       </c>
       <c r="F9" t="n">
-        <v>1.136901942207485</v>
+        <v>330</v>
       </c>
       <c r="G9" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H9" t="n">
-        <v>317</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>321</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>4.242424242424243</v>
+        <v>0.0545</v>
       </c>
       <c r="M9" t="n">
-        <v>3.03030303030303</v>
+        <v>0.0303</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>0.9756</v>
       </c>
       <c r="O9" t="n">
-        <v>96.06060606060606</v>
+        <v>0.9877</v>
       </c>
       <c r="P9" t="n">
-        <v>97.27272727272728</v>
+        <v>0.9697</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9938271604938271</v>
+        <v>0.9816</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9757575757575757</v>
+        <v>0.9726</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9847094801223242</v>
+        <v>0.9846</v>
       </c>
       <c r="T9" t="n">
-        <v>99.19193265060817</v>
+        <v>0.9919</v>
       </c>
       <c r="U9" t="n">
-        <v>88.33261020591537</v>
+        <v>0.8833</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Fließtext/Ergebnis_Molmo/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Molmo/results.xlsx
@@ -550,64 +550,64 @@
         <v>1569</v>
       </c>
       <c r="B2" t="n">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="C2" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1651</v>
+        <v>0.1625</v>
       </c>
       <c r="F2" t="n">
         <v>216</v>
       </c>
       <c r="G2" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H2" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I2" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3472</v>
+        <v>0.3148</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2546</v>
+        <v>0.2407</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8406</v>
+        <v>0.8524</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8832</v>
+        <v>0.8861</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8056</v>
+        <v>0.8287</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8447</v>
+        <v>0.8606</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8227</v>
+        <v>0.8404</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8635</v>
+        <v>0.8732</v>
       </c>
       <c r="T2" t="n">
         <v>0.8719</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6283</v>
+        <v>0.6451</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -620,64 +620,64 @@
         <v>3496</v>
       </c>
       <c r="B3" t="n">
-        <v>3471</v>
+        <v>3480</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0375</v>
+        <v>0.0323</v>
       </c>
       <c r="F3" t="n">
         <v>590</v>
       </c>
       <c r="G3" t="n">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="H3" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0644</v>
+        <v>0.0508</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0508</v>
+        <v>0.0441</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9742</v>
+        <v>0.9795</v>
       </c>
       <c r="O3" t="n">
-        <v>0.981</v>
+        <v>0.9828</v>
       </c>
       <c r="P3" t="n">
-        <v>0.961</v>
+        <v>0.9695</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9676</v>
+        <v>0.9728</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9676</v>
+        <v>0.9744</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9742</v>
+        <v>0.9778</v>
       </c>
       <c r="T3" t="n">
         <v>0.9878</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8264</v>
+        <v>0.8354</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -690,58 +690,58 @@
         <v>1331</v>
       </c>
       <c r="B4" t="n">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="C4" t="n">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="D4" t="n">
-        <v>1333</v>
+        <v>1317</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3929</v>
+        <v>1.3689</v>
       </c>
       <c r="F4" t="n">
         <v>184</v>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I4" t="n">
         <v>231</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>2.0652</v>
+        <v>2.0598</v>
       </c>
       <c r="M4" t="n">
-        <v>2.0217</v>
+        <v>2.0054</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1316</v>
+        <v>0.1348</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1336</v>
+        <v>0.1374</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1902</v>
+        <v>0.1957</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1944</v>
+        <v>0.2011</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1556</v>
+        <v>0.1596</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1584</v>
+        <v>0.1633</v>
       </c>
       <c r="T4" t="n">
         <v>0.008</v>
@@ -760,64 +760,64 @@
         <v>3065</v>
       </c>
       <c r="B5" t="n">
-        <v>2547</v>
+        <v>2636</v>
       </c>
       <c r="C5" t="n">
-        <v>518</v>
+        <v>429</v>
       </c>
       <c r="D5" t="n">
-        <v>412</v>
+        <v>323</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3034</v>
+        <v>0.2454</v>
       </c>
       <c r="F5" t="n">
         <v>436</v>
       </c>
       <c r="G5" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="H5" t="n">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="I5" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J5" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L5" t="n">
-        <v>1.0229</v>
+        <v>0.9954</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8578</v>
+        <v>0.8486</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4857</v>
+        <v>0.5028</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5414</v>
+        <v>0.5389</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3899</v>
+        <v>0.4128</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.425</v>
+        <v>0.4545</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4326</v>
+        <v>0.4534</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4762</v>
+        <v>0.4932</v>
       </c>
       <c r="T5" t="n">
         <v>0.3063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1196</v>
+        <v>0.121</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -830,64 +830,64 @@
         <v>1496</v>
       </c>
       <c r="B6" t="n">
-        <v>1460</v>
+        <v>1467</v>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0956</v>
+        <v>0.0862</v>
       </c>
       <c r="F6" t="n">
         <v>198</v>
       </c>
       <c r="G6" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" t="n">
         <v>22</v>
       </c>
       <c r="J6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2879</v>
+        <v>0.2727</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1768</v>
+        <v>0.1717</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8811</v>
+        <v>0.883</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9368</v>
+        <v>0.9326</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8232</v>
+        <v>0.8384</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8717</v>
+        <v>0.883</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8512</v>
+        <v>0.8601</v>
       </c>
       <c r="S6" t="n">
-        <v>0.903</v>
+        <v>0.9071</v>
       </c>
       <c r="T6" t="n">
         <v>0.8779</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5477</v>
+        <v>0.5486</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -900,64 +900,64 @@
         <v>2025</v>
       </c>
       <c r="B7" t="n">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="C7" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1111</v>
+        <v>0.1101</v>
       </c>
       <c r="F7" t="n">
         <v>268</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1828</v>
+        <v>0.1716</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0709</v>
+        <v>0.0746</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9195</v>
+        <v>0.9268999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9756</v>
+        <v>0.9757</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8955</v>
+        <v>0.8993</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9486</v>
+        <v>0.9451000000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9074</v>
+        <v>0.9129</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9619</v>
+        <v>0.9602000000000001</v>
       </c>
       <c r="T7" t="n">
         <v>0.8137</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7092000000000001</v>
+        <v>0.7129</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -970,25 +970,25 @@
         <v>2754</v>
       </c>
       <c r="B8" t="n">
-        <v>2747</v>
+        <v>2749</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0276</v>
+        <v>0.0261</v>
       </c>
       <c r="F8" t="n">
         <v>463</v>
       </c>
       <c r="G8" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>6</v>
@@ -1000,10 +1000,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0238</v>
+        <v>0.0216</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0194</v>
+        <v>0.0173</v>
       </c>
       <c r="N8" t="n">
         <v>0.9871</v>
@@ -1012,22 +1012,22 @@
         <v>0.9892</v>
       </c>
       <c r="P8" t="n">
+        <v>0.9913999999999999</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.9935</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.9892</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0.9913</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.9881</v>
-      </c>
       <c r="S8" t="n">
-        <v>0.9903</v>
+        <v>0.9913999999999999</v>
       </c>
       <c r="T8" t="n">
         <v>0.9966</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9365</v>
+        <v>0.9492</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>

--- a/model/Auswertung/Fließtext/Ergebnis_Molmo/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Molmo/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="B2" t="n">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="C2" t="n">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1625</v>
+        <v>0.1581</v>
       </c>
       <c r="F2" t="n">
         <v>216</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3496</v>
+        <v>3478</v>
       </c>
       <c r="B3" t="n">
-        <v>3480</v>
+        <v>3463</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0323</v>
+        <v>0.0339</v>
       </c>
       <c r="F3" t="n">
         <v>590</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="B4" t="n">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C4" t="n">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="D4" t="n">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3689</v>
+        <v>1.3632</v>
       </c>
       <c r="F4" t="n">
         <v>184</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3065</v>
+        <v>3055</v>
       </c>
       <c r="B5" t="n">
-        <v>2636</v>
+        <v>2632</v>
       </c>
       <c r="C5" t="n">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D5" t="n">
         <v>323</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2454</v>
+        <v>0.2442</v>
       </c>
       <c r="F5" t="n">
         <v>436</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="B6" t="n">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0862</v>
+        <v>0.0756</v>
       </c>
       <c r="F6" t="n">
         <v>198</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>1821</v>
+        <v>1828</v>
       </c>
       <c r="C7" t="n">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1101</v>
+        <v>0.0985</v>
       </c>
       <c r="F7" t="n">
         <v>268</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2754</v>
+        <v>2735</v>
       </c>
       <c r="B8" t="n">
-        <v>2749</v>
+        <v>2733</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0261</v>
+        <v>0.0274</v>
       </c>
       <c r="F8" t="n">
         <v>463</v>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2111</v>
+        <v>2098</v>
       </c>
       <c r="B9" t="n">
-        <v>2102</v>
+        <v>2090</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
         <v>0.0114</v>
